--- a/Kimpo/trialbytrial.xlsx
+++ b/Kimpo/trialbytrial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewkirjner/Desktop/Andrew/RaymondLab/monkeydata/Kimpo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewkirjner/Desktop/RaymondResearch/Kimpo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045BE3E-4A29-4A44-AB9A-F0E9C02DA69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AD0AD-DA17-4142-9133-B2AC103C9825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="460" windowWidth="22360" windowHeight="19560" tabRatio="892" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9020" yWindow="700" windowWidth="22360" windowHeight="19560" tabRatio="892" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Steps!$A$1:$C$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Steps All'!$A$1:$L$414</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -13736,8 +13746,8 @@
   <dimension ref="A1:Q414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L363" sqref="L363"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
